--- a/Documents/Task Delivery Form.xlsx
+++ b/Documents/Task Delivery Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmccormick/development/ESDAssignment/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaked\OneDrive\Desktop\ESD\ESDAssignment\ESDAssignment\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E331977-E12D-3641-ADB1-A135074F6A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD7896A-3C5A-4FF8-99DE-D10DFB257461}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{FC072DEC-FC7B-494B-A00F-571B4653DA29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FC072DEC-FC7B-494B-A00F-571B4653DA29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Team Members</t>
   </si>
@@ -54,55 +54,46 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
     <t>Status of Completion (%)</t>
   </si>
   <si>
     <t>Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Features </t>
+  </si>
+  <si>
+    <t>T1 Circle CL</t>
+  </si>
+  <si>
+    <t>T2 Home page UI</t>
+  </si>
+  <si>
+    <t>Home page DB</t>
+  </si>
+  <si>
+    <t>Registration UI</t>
+  </si>
+  <si>
+    <t>Registration servlet</t>
+  </si>
+  <si>
+    <t>Registration DB</t>
+  </si>
+  <si>
+    <t>Login UI</t>
+  </si>
+  <si>
+    <t>Login servlet</t>
+  </si>
+  <si>
+    <t>Login DB</t>
+  </si>
+  <si>
+    <t>Dashboard UI</t>
+  </si>
+  <si>
+    <t>Dashboard servlet</t>
   </si>
 </sst>
 </file>
@@ -147,12 +138,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,13 +176,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,124 +500,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6960EDE9-5552-8546-90BD-EF5D854B480A}">
-  <dimension ref="B1:S10"/>
+  <dimension ref="B1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
     <col min="2" max="2" width="59.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="23.3984375" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" customWidth="1"/>
+    <col min="13" max="13" width="17.69921875" customWidth="1"/>
+    <col min="19" max="19" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="S1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="S1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2"/>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>22</v>
+      <c r="C8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
